--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_39.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_39.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_0</t>
+          <t>model_1_39_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9996105486365694</v>
+        <v>0.9431208200927067</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8234537911435995</v>
+        <v>0.7121821424149308</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8125613303717962</v>
+        <v>0.7865429118784275</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997858183511674</v>
+        <v>0.9435324307735082</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001621101697397601</v>
+        <v>0.1825985026046263</v>
       </c>
       <c r="G2" t="n">
-        <v>1.180565311543293</v>
+        <v>1.924639338950731</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6704572529415653</v>
+        <v>0.7635236272577601</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001284631803356395</v>
+        <v>0.3763643166698518</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07106785856361132</v>
+        <v>0.8830472728682025</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04026290721492427</v>
+        <v>0.4273154602920731</v>
       </c>
       <c r="L2" t="n">
-        <v>1.024924887259559</v>
+        <v>0.922547499700707</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04089700775541814</v>
+        <v>0.4340452516329267</v>
       </c>
       <c r="N2" t="n">
-        <v>142.8492986015039</v>
+        <v>37.40093102253535</v>
       </c>
       <c r="O2" t="n">
-        <v>284.1844711447204</v>
+        <v>74.36551461076117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_1</t>
+          <t>model_1_39_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9996161919781587</v>
+        <v>0.9431342434759059</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8232818442385503</v>
+        <v>0.7121815799362703</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8124086456149852</v>
+        <v>0.7864899708458778</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997269665366022</v>
+        <v>0.9435729425757153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001597611137373253</v>
+        <v>0.1825554096895026</v>
       </c>
       <c r="G3" t="n">
-        <v>1.1817151212891</v>
+        <v>1.924643100248125</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6710033974635077</v>
+        <v>0.7637129942614932</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001637616819055935</v>
+        <v>0.376094299791782</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06439628001332258</v>
+        <v>0.8830066588229978</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03997012806300791</v>
+        <v>0.4272650344803593</v>
       </c>
       <c r="L3" t="n">
-        <v>1.024563713397846</v>
+        <v>0.9225657783501697</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04059961762453087</v>
+        <v>0.4339940316650857</v>
       </c>
       <c r="N3" t="n">
-        <v>142.8784916091434</v>
+        <v>37.40140307460843</v>
       </c>
       <c r="O3" t="n">
-        <v>284.2136641523598</v>
+        <v>74.36598666283426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_2</t>
+          <t>model_1_39_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9996341749341873</v>
+        <v>0.9431477668960421</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8227224586006399</v>
+        <v>0.7121811072709502</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8132411383425081</v>
+        <v>0.7864366991373138</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995681907339049</v>
+        <v>0.943613820423063</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001522756602816281</v>
+        <v>0.1825119956270813</v>
       </c>
       <c r="G4" t="n">
-        <v>1.185455735625541</v>
+        <v>1.924646260963297</v>
       </c>
       <c r="H4" t="n">
-        <v>0.66802561924786</v>
+        <v>0.7639035440741553</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002589932047087947</v>
+        <v>0.3758218431711996</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08769631608495017</v>
+        <v>0.8829641650138672</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03902251405043351</v>
+        <v>0.427214226854726</v>
       </c>
       <c r="L4" t="n">
-        <v>1.023412804212015</v>
+        <v>0.9225841932201424</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03963707963852491</v>
+        <v>0.4339424238701377</v>
       </c>
       <c r="N4" t="n">
-        <v>142.9744660642879</v>
+        <v>37.40187875731244</v>
       </c>
       <c r="O4" t="n">
-        <v>284.3096386075043</v>
+        <v>74.36646234553825</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_4</t>
+          <t>model_1_39_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9996567432819693</v>
+        <v>0.9431613875448062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8224998855145325</v>
+        <v>0.7121806508546684</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8134425227094022</v>
+        <v>0.7863830404130201</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9995142522489193</v>
+        <v>0.9436550490421997</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001428815252669936</v>
+        <v>0.1824682694328415</v>
       </c>
       <c r="G5" t="n">
-        <v>1.186944082877196</v>
+        <v>1.924649313021074</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6673052790444162</v>
+        <v>0.7640954782196425</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002913447593891301</v>
+        <v>0.3755470486071488</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08558864727945543</v>
+        <v>0.8829198292310252</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03779967265294683</v>
+        <v>0.4271630478316699</v>
       </c>
       <c r="L5" t="n">
-        <v>1.021968429953965</v>
+        <v>0.9226027404865446</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03839497971142074</v>
+        <v>0.4338904388286287</v>
       </c>
       <c r="N5" t="n">
-        <v>143.1018193454762</v>
+        <v>37.40235797439495</v>
       </c>
       <c r="O5" t="n">
-        <v>284.4369918886926</v>
+        <v>74.36694156262077</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_3</t>
+          <t>model_1_39_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999638807175781</v>
+        <v>0.9431750533402421</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8224088803211738</v>
+        <v>0.7121802486014552</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8136267073396433</v>
+        <v>0.7863289153188189</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994693706704533</v>
+        <v>0.9436965280701447</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001503474773515812</v>
+        <v>0.1824243983048195</v>
       </c>
       <c r="G6" t="n">
-        <v>1.187552635024227</v>
+        <v>1.924652002890163</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6666464613016821</v>
+        <v>0.7642890805432471</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003182641072401492</v>
+        <v>0.3752705850330563</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08927630544351373</v>
+        <v>0.8828758806438642</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03877466664609525</v>
+        <v>0.4271116930087719</v>
       </c>
       <c r="L6" t="n">
-        <v>1.023116340750015</v>
+        <v>0.9226213492292659</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03938532888532483</v>
+        <v>0.4338382752186061</v>
       </c>
       <c r="N6" t="n">
-        <v>142.9999526683655</v>
+        <v>37.40283889530252</v>
       </c>
       <c r="O6" t="n">
-        <v>284.3351252115818</v>
+        <v>74.36742248352834</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_5</t>
+          <t>model_1_39_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9996475233258646</v>
+        <v>0.9431888134325139</v>
       </c>
       <c r="C7" t="n">
-        <v>0.822299074844012</v>
+        <v>0.712179830656591</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8133609765047691</v>
+        <v>0.7862744594076598</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9994545536030877</v>
+        <v>0.9437383070105546</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001467193566099267</v>
+        <v>0.1823802244568734</v>
       </c>
       <c r="G7" t="n">
-        <v>1.188286904755615</v>
+        <v>1.924654797689395</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6675969650900682</v>
+        <v>0.7644838661799277</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003271511785994928</v>
+        <v>0.3749921225000668</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0867996970097977</v>
+        <v>0.8828309356351978</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03830396279889676</v>
+        <v>0.4270599775873096</v>
       </c>
       <c r="L7" t="n">
-        <v>1.022558507144666</v>
+        <v>0.9226400863761892</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03890721192306418</v>
+        <v>0.4337857453309522</v>
       </c>
       <c r="N7" t="n">
-        <v>143.0488076832552</v>
+        <v>37.40332325153493</v>
       </c>
       <c r="O7" t="n">
-        <v>284.3839802264716</v>
+        <v>74.36790683976075</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_9</t>
+          <t>model_1_39_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9995947228176006</v>
+        <v>0.9432026495831707</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8222830431577792</v>
+        <v>0.7121795138783353</v>
       </c>
       <c r="D8" t="n">
-        <v>0.81373885241577</v>
+        <v>0.7862195474552164</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9992023550634492</v>
+        <v>0.9437804748767055</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00168697709135461</v>
+        <v>0.1823358064396681</v>
       </c>
       <c r="G8" t="n">
-        <v>1.188394108715273</v>
+        <v>1.924656915987049</v>
       </c>
       <c r="H8" t="n">
-        <v>0.666245324866922</v>
+        <v>0.7646802830498398</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00478416362402804</v>
+        <v>0.3747110677221348</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09840164819225541</v>
+        <v>0.8827838024599529</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0410728266784088</v>
+        <v>0.4270079699954886</v>
       </c>
       <c r="L8" t="n">
-        <v>1.025937739673559</v>
+        <v>0.9226589270919771</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04171968264083011</v>
+        <v>0.4337329186715486</v>
       </c>
       <c r="N8" t="n">
-        <v>142.7696341100553</v>
+        <v>37.40381040333153</v>
       </c>
       <c r="O8" t="n">
-        <v>284.1048066532717</v>
+        <v>74.36839399155735</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_6</t>
+          <t>model_1_39_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9996361278276771</v>
+        <v>0.9432165376521129</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8222418945028835</v>
+        <v>0.7121791997114872</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8134736196319581</v>
+        <v>0.7861643188165323</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9994035402394525</v>
+        <v>0.9438228743335856</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001514627631528536</v>
+        <v>0.1822912217498563</v>
       </c>
       <c r="G9" t="n">
-        <v>1.188669269960032</v>
+        <v>1.924659016822209</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6671940471555371</v>
+        <v>0.7648778326880725</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003577482860916947</v>
+        <v>0.3744284693593143</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08875736420890938</v>
+        <v>0.8827378149963671</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03891821721929894</v>
+        <v>0.4269557608814482</v>
       </c>
       <c r="L9" t="n">
-        <v>1.023287819028667</v>
+        <v>0.9226778385050047</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03953114023655855</v>
+        <v>0.4336798873161519</v>
       </c>
       <c r="N9" t="n">
-        <v>142.985171316003</v>
+        <v>37.4042995024557</v>
       </c>
       <c r="O9" t="n">
-        <v>284.3203438592194</v>
+        <v>74.36888309068152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_7</t>
+          <t>model_1_39_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9996097693100505</v>
+        <v>0.9432305588974166</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8221736611185404</v>
+        <v>0.7121789326925574</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8137669213378312</v>
+        <v>0.7861086799288517</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9992857906086677</v>
+        <v>0.9438657544417125</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001624345664838103</v>
+        <v>0.1822462095256774</v>
       </c>
       <c r="G10" t="n">
-        <v>1.18912554691532</v>
+        <v>1.924660802379022</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6661449239602388</v>
+        <v>0.7650768497631777</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004283728803853973</v>
+        <v>0.3741426673881128</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09440324194326244</v>
+        <v>0.8826886086712771</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04030317189549853</v>
+        <v>0.4269030446432508</v>
       </c>
       <c r="L10" t="n">
-        <v>1.024974764156767</v>
+        <v>0.9226969312645673</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04093790656446152</v>
+        <v>0.4336263408498998</v>
       </c>
       <c r="N10" t="n">
-        <v>142.8453004241696</v>
+        <v>37.40479341304535</v>
       </c>
       <c r="O10" t="n">
-        <v>284.180472967386</v>
+        <v>74.36937700127118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_8</t>
+          <t>model_1_39_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9996010558701147</v>
+        <v>0.9432446149565403</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8220350120669822</v>
+        <v>0.7121787033086493</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8137130261664094</v>
+        <v>0.7860525670398795</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992416128868625</v>
+        <v>0.9439088610710968</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001660615591192373</v>
+        <v>0.1822010855391378</v>
       </c>
       <c r="G11" t="n">
-        <v>1.190052693761511</v>
+        <v>1.924662336270272</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6663377038633929</v>
+        <v>0.7652775623134195</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004548700647801292</v>
+        <v>0.3738553556207672</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09567580843464342</v>
+        <v>0.8826378354482018</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04075065142046656</v>
+        <v>0.4268501909793854</v>
       </c>
       <c r="L11" t="n">
-        <v>1.025532424312658</v>
+        <v>0.9227160714301825</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04139243344463238</v>
+        <v>0.4335726547936628</v>
       </c>
       <c r="N11" t="n">
-        <v>142.8011338145789</v>
+        <v>37.40528867244095</v>
       </c>
       <c r="O11" t="n">
-        <v>284.1363063577953</v>
+        <v>74.36987226066677</v>
       </c>
     </row>
   </sheetData>
